--- a/docs/SCRATCH應用競賽國小甲組程式設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國小甲組程式設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="215">
   <si>
     <t>序</t>
   </si>
@@ -45,265 +45,169 @@
     <t>SCRATCH應用競賽國小甲組程式設計組</t>
   </si>
   <si>
-    <t>大甲區大甲國小</t>
-  </si>
-  <si>
-    <t>郭芷安</t>
-  </si>
-  <si>
-    <t>徐敏議</t>
-  </si>
-  <si>
-    <t>kfr21s4</t>
-  </si>
-  <si>
-    <t>hpe89a1</t>
-  </si>
-  <si>
-    <t>大肚區大肚國小</t>
-  </si>
-  <si>
-    <t>李安庭</t>
-  </si>
-  <si>
-    <t>陳宗鉉</t>
-  </si>
-  <si>
-    <t>bjk44pe8</t>
-  </si>
-  <si>
-    <t>ncd71t3</t>
-  </si>
-  <si>
-    <t>陳豈唯</t>
-  </si>
-  <si>
-    <t>hp44h5</t>
-  </si>
-  <si>
-    <t>t36dx6</t>
-  </si>
-  <si>
     <t>大里區永隆國小</t>
   </si>
   <si>
-    <t>曹育誠</t>
+    <t>黃柏文</t>
   </si>
   <si>
     <t>張安邦</t>
   </si>
   <si>
-    <t>xbj73y3</t>
-  </si>
-  <si>
-    <t>sm33my6</t>
-  </si>
-  <si>
-    <t>大里區益民國小</t>
-  </si>
-  <si>
-    <t>林勝傑</t>
-  </si>
-  <si>
-    <t>程芳鈺</t>
-  </si>
-  <si>
-    <t>gwh13et7</t>
-  </si>
-  <si>
-    <t>f47a2</t>
-  </si>
-  <si>
-    <t>陳敬丰</t>
-  </si>
-  <si>
-    <t>丁子評</t>
-  </si>
-  <si>
-    <t>gwh41x7</t>
-  </si>
-  <si>
-    <t>jkf35j5</t>
-  </si>
-  <si>
-    <t>曾逸亮</t>
-  </si>
-  <si>
-    <t>陳祖瑞</t>
-  </si>
-  <si>
-    <t>myg37cd3</t>
-  </si>
-  <si>
-    <t>y83x1</t>
+    <t>kf96f7</t>
+  </si>
+  <si>
+    <t>k23d1</t>
   </si>
   <si>
     <t>大里區瑞城國小</t>
   </si>
   <si>
-    <t>邱于珏</t>
+    <t>張伯輔</t>
   </si>
   <si>
     <t>陳啟榕</t>
   </si>
   <si>
-    <t>gwh4r4</t>
-  </si>
-  <si>
-    <t>whp3v6</t>
+    <t>cdx64m7</t>
+  </si>
+  <si>
+    <t>p95h3</t>
+  </si>
+  <si>
+    <t>吳沁瞳</t>
+  </si>
+  <si>
+    <t>n41f2</t>
+  </si>
+  <si>
+    <t>a10n3</t>
+  </si>
+  <si>
+    <t>賴思叡</t>
+  </si>
+  <si>
+    <t>hp74r6</t>
+  </si>
+  <si>
+    <t>g16pe2</t>
   </si>
   <si>
     <t>大雅區大明國小</t>
   </si>
   <si>
-    <t>張凱翔</t>
+    <t>魏絃恩</t>
   </si>
   <si>
     <t>鐘世帆</t>
   </si>
   <si>
-    <t>hp10d4</t>
-  </si>
-  <si>
-    <t>t25tv6</t>
-  </si>
-  <si>
-    <t>王鈞平</t>
-  </si>
-  <si>
-    <t>fr70yg3</t>
-  </si>
-  <si>
-    <t>cd50y7</t>
+    <t>rsm43f6</t>
+  </si>
+  <si>
+    <t>w78y1</t>
+  </si>
+  <si>
+    <t>何承岳</t>
+  </si>
+  <si>
+    <t>xbj73b5</t>
+  </si>
+  <si>
+    <t>bjk62a7</t>
+  </si>
+  <si>
+    <t>太平區宜欣國小</t>
+  </si>
+  <si>
+    <t>陳泰穎</t>
+  </si>
+  <si>
+    <t>李佳蓉</t>
+  </si>
+  <si>
+    <t>kf1a1</t>
+  </si>
+  <si>
+    <t>y41c9</t>
   </si>
   <si>
     <t>北屯區仁美國小</t>
   </si>
   <si>
-    <t>黃彥斌</t>
+    <t>洪榆婷</t>
   </si>
   <si>
     <t>孫嚭順</t>
   </si>
   <si>
-    <t>my44c2</t>
-  </si>
-  <si>
-    <t>jkf7my6</t>
-  </si>
-  <si>
-    <t>北屯區文昌國小</t>
-  </si>
-  <si>
-    <t>陳震鴻</t>
-  </si>
-  <si>
-    <t>晋鳳山</t>
-  </si>
-  <si>
-    <t>b53pe1</t>
-  </si>
-  <si>
-    <t>t32dx8</t>
-  </si>
-  <si>
-    <t>北屯區東光國小</t>
-  </si>
-  <si>
-    <t>陳又昱</t>
-  </si>
-  <si>
-    <t>林亮君</t>
-  </si>
-  <si>
-    <t>v34g3</t>
-  </si>
-  <si>
-    <t>wh84v9</t>
-  </si>
-  <si>
-    <t>陳沛均</t>
-  </si>
-  <si>
-    <t>李清峯</t>
-  </si>
-  <si>
-    <t>hp13h4</t>
-  </si>
-  <si>
-    <t>f87e4</t>
-  </si>
-  <si>
-    <t>北屯區松竹國小</t>
-  </si>
-  <si>
-    <t>林彥均</t>
-  </si>
-  <si>
-    <t>李翔昇</t>
-  </si>
-  <si>
-    <t>cdx97h9</t>
-  </si>
-  <si>
-    <t>my77cd3</t>
+    <t>y30k6</t>
+  </si>
+  <si>
+    <t>tv34hp2</t>
+  </si>
+  <si>
+    <t>顧博鈞</t>
+  </si>
+  <si>
+    <t>bj41et9</t>
+  </si>
+  <si>
+    <t>c69gw6</t>
+  </si>
+  <si>
+    <t>北屯區明道普霖斯頓小學</t>
+  </si>
+  <si>
+    <t>黃翊修</t>
+  </si>
+  <si>
+    <t>劉振維</t>
+  </si>
+  <si>
+    <t>dx12x5</t>
+  </si>
+  <si>
+    <t>jk68m7</t>
+  </si>
+  <si>
+    <t>楊秉育</t>
+  </si>
+  <si>
+    <t>my64s4</t>
+  </si>
+  <si>
+    <t>hp54x6</t>
   </si>
   <si>
     <t>北屯區軍功國小</t>
   </si>
   <si>
-    <t>馬鈺禮</t>
+    <t>林子閎</t>
   </si>
   <si>
     <t>黃資貴</t>
   </si>
   <si>
-    <t>r12a7</t>
-  </si>
-  <si>
-    <t>xb1w5</t>
-  </si>
-  <si>
-    <t>呂學彥</t>
-  </si>
-  <si>
-    <t>wh32n9</t>
-  </si>
-  <si>
-    <t>k17r5</t>
-  </si>
-  <si>
-    <t>北區中華國小</t>
-  </si>
-  <si>
-    <t>鄭家德</t>
-  </si>
-  <si>
-    <t>顧智瑋</t>
-  </si>
-  <si>
-    <t>bjk67my4</t>
-  </si>
-  <si>
-    <t>r40x2</t>
-  </si>
-  <si>
-    <t>何藩</t>
-  </si>
-  <si>
-    <t>hp58jk7</t>
-  </si>
-  <si>
-    <t>cdx96g2</t>
-  </si>
-  <si>
-    <t>何禹承</t>
-  </si>
-  <si>
-    <t>tv95r4</t>
-  </si>
-  <si>
-    <t>et16s1</t>
+    <t>dx41my8</t>
+  </si>
+  <si>
+    <t>h91c8</t>
+  </si>
+  <si>
+    <t>北屯區陳平國小</t>
+  </si>
+  <si>
+    <t>郭宥芊</t>
+  </si>
+  <si>
+    <t>周冠廷</t>
+  </si>
+  <si>
+    <t>hp99m3</t>
+  </si>
+  <si>
+    <t>gw46gw5</t>
   </si>
   <si>
     <t>北區立人國小</t>
@@ -315,64 +219,169 @@
     <t>呂欣芸</t>
   </si>
   <si>
-    <t>pe74cd2</t>
-  </si>
-  <si>
-    <t>pe30an8</t>
-  </si>
-  <si>
-    <t>顏柏智</t>
-  </si>
-  <si>
-    <t>whp65d7</t>
-  </si>
-  <si>
-    <t>wh25d3</t>
-  </si>
-  <si>
-    <t>鄭楷叡</t>
-  </si>
-  <si>
-    <t>sm9xb8</t>
-  </si>
-  <si>
-    <t>an88gw5</t>
+    <t>cdx41k2</t>
+  </si>
+  <si>
+    <t>e69e4</t>
+  </si>
+  <si>
+    <t>柯達安</t>
+  </si>
+  <si>
+    <t>ncd53k6</t>
+  </si>
+  <si>
+    <t>et12my6</t>
+  </si>
+  <si>
+    <t>北區育仁小學</t>
+  </si>
+  <si>
+    <t>鄭傑熙</t>
+  </si>
+  <si>
+    <t>鄭文承</t>
+  </si>
+  <si>
+    <t>gw86p4</t>
+  </si>
+  <si>
+    <t>nc56hp8</t>
+  </si>
+  <si>
+    <t>陳子丰</t>
+  </si>
+  <si>
+    <t>smy55f5</t>
+  </si>
+  <si>
+    <t>ncd81sm5</t>
+  </si>
+  <si>
+    <t>蘇炘浩</t>
+  </si>
+  <si>
+    <t>sm54dx8</t>
+  </si>
+  <si>
+    <t>v46rs6</t>
+  </si>
+  <si>
+    <t>呂承寰</t>
+  </si>
+  <si>
+    <t>dx15nc1</t>
+  </si>
+  <si>
+    <t>g1m4</t>
+  </si>
+  <si>
+    <t>北區臺中教大實小</t>
+  </si>
+  <si>
+    <t>林奕得</t>
+  </si>
+  <si>
+    <t>林裕集</t>
+  </si>
+  <si>
+    <t>wh71an5</t>
+  </si>
+  <si>
+    <t>cd22v7</t>
+  </si>
+  <si>
+    <t>黃浚洋</t>
+  </si>
+  <si>
+    <t>tv65gw5</t>
+  </si>
+  <si>
+    <t>tv76cd7</t>
+  </si>
+  <si>
+    <t>賴睿勳</t>
+  </si>
+  <si>
+    <t>c66n8</t>
+  </si>
+  <si>
+    <t>an5d1</t>
+  </si>
+  <si>
+    <t>吳仲威</t>
+  </si>
+  <si>
+    <t>gw20s4</t>
+  </si>
+  <si>
+    <t>a32pe6</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
   </si>
   <si>
-    <t>別鎮桓</t>
+    <t>謝多</t>
   </si>
   <si>
     <t>蔡佩勳</t>
   </si>
   <si>
-    <t>g45a2</t>
-  </si>
-  <si>
-    <t>y7s1</t>
-  </si>
-  <si>
-    <t>蔡儱駿</t>
-  </si>
-  <si>
-    <t>張字和</t>
-  </si>
-  <si>
-    <t>xb60v8</t>
-  </si>
-  <si>
-    <t>bjk63my3</t>
-  </si>
-  <si>
-    <t>江育倫</t>
-  </si>
-  <si>
-    <t>bj57t3</t>
-  </si>
-  <si>
-    <t>e85k8</t>
+    <t>cdx21b6</t>
+  </si>
+  <si>
+    <t>bj7xb8</t>
+  </si>
+  <si>
+    <t>陳冠亦</t>
+  </si>
+  <si>
+    <t>nc15e8</t>
+  </si>
+  <si>
+    <t>rs55wh5</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>陳澤堯</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>h17h2</t>
+  </si>
+  <si>
+    <t>s75nc3</t>
+  </si>
+  <si>
+    <t>鄧仰軒</t>
+  </si>
+  <si>
+    <t>ygw64p6</t>
+  </si>
+  <si>
+    <t>a45b4</t>
+  </si>
+  <si>
+    <t>陳柏宇</t>
+  </si>
+  <si>
+    <t>pet87cd6</t>
+  </si>
+  <si>
+    <t>kf53c3</t>
+  </si>
+  <si>
+    <t>曾黃聖</t>
+  </si>
+  <si>
+    <t>tv11wh1</t>
+  </si>
+  <si>
+    <t>hpe66t5</t>
   </si>
   <si>
     <t>西屯區上石國小</t>
@@ -384,520 +393,277 @@
     <t>周百瑩</t>
   </si>
   <si>
-    <t>kf58dx8</t>
-  </si>
-  <si>
-    <t>s5m8</t>
-  </si>
-  <si>
-    <t>江承恩</t>
-  </si>
-  <si>
-    <t>pet25wh4</t>
-  </si>
-  <si>
-    <t>dx30d4</t>
-  </si>
-  <si>
-    <t>西屯區長安國小</t>
-  </si>
-  <si>
-    <t>常興宥</t>
-  </si>
-  <si>
-    <t>王文君</t>
-  </si>
-  <si>
-    <t>d9n2</t>
-  </si>
-  <si>
-    <t>an77x8</t>
-  </si>
-  <si>
-    <t>黃兆晨</t>
-  </si>
-  <si>
-    <t>cd22y8</t>
-  </si>
-  <si>
-    <t>e92h6</t>
-  </si>
-  <si>
-    <t>邱禹喆</t>
-  </si>
-  <si>
-    <t>hp41xb6</t>
-  </si>
-  <si>
-    <t>xb16c4</t>
-  </si>
-  <si>
-    <t>黃鼎堯</t>
-  </si>
-  <si>
-    <t>hpe25et7</t>
-  </si>
-  <si>
-    <t>gw67t4</t>
-  </si>
-  <si>
-    <t>西區大勇國小</t>
-  </si>
-  <si>
-    <t>陳羿君</t>
-  </si>
-  <si>
-    <t>廖鴻玉</t>
-  </si>
-  <si>
-    <t>d65e6</t>
-  </si>
-  <si>
-    <t>hpe61kf1</t>
-  </si>
-  <si>
-    <t>鄭允迦</t>
-  </si>
-  <si>
-    <t>e61dx8</t>
-  </si>
-  <si>
-    <t>v37y2</t>
-  </si>
-  <si>
-    <t>沙鹿區北勢國小</t>
-  </si>
-  <si>
-    <t>高一弘</t>
-  </si>
-  <si>
-    <t>洪家祐</t>
-  </si>
-  <si>
-    <t>jkf16s2</t>
-  </si>
-  <si>
-    <t>hpe24b9</t>
-  </si>
-  <si>
-    <t>陳柏諧</t>
-  </si>
-  <si>
-    <t>jk60nc2</t>
-  </si>
-  <si>
-    <t>r24gw4</t>
+    <t>wh70sm9</t>
+  </si>
+  <si>
+    <t>frs16fr2</t>
+  </si>
+  <si>
+    <t>西屯區上安國小</t>
+  </si>
+  <si>
+    <t>江俊佑</t>
+  </si>
+  <si>
+    <t>林奇玄</t>
+  </si>
+  <si>
+    <t>bjk70f8</t>
+  </si>
+  <si>
+    <t>cdx98tv8</t>
+  </si>
+  <si>
+    <t>西屯區協和國小</t>
+  </si>
+  <si>
+    <t>黃子耘</t>
+  </si>
+  <si>
+    <t>洪文海</t>
+  </si>
+  <si>
+    <t>j51nc4</t>
+  </si>
+  <si>
+    <t>b30yg5</t>
+  </si>
+  <si>
+    <t>西區中正國小</t>
+  </si>
+  <si>
+    <t>劉畊圻</t>
+  </si>
+  <si>
+    <t>林耕生</t>
+  </si>
+  <si>
+    <t>tv87dx8</t>
+  </si>
+  <si>
+    <t>sm86r5</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國小</t>
   </si>
   <si>
-    <t>謝依玲</t>
+    <t>李昊庭</t>
   </si>
   <si>
     <t>翁小惠</t>
   </si>
   <si>
-    <t>tv5jk8</t>
-  </si>
-  <si>
-    <t>rs26y6</t>
-  </si>
-  <si>
-    <t>李昊庭</t>
-  </si>
-  <si>
-    <t>kf5yg8</t>
-  </si>
-  <si>
-    <t>yg38j7</t>
-  </si>
-  <si>
-    <t>東區力行國小</t>
-  </si>
-  <si>
-    <t>莊佩甄</t>
-  </si>
-  <si>
-    <t>林景盛</t>
-  </si>
-  <si>
-    <t>pe67yg8</t>
-  </si>
-  <si>
-    <t>kf53k9</t>
-  </si>
-  <si>
-    <t>業緒祥</t>
-  </si>
-  <si>
-    <t>bj72t6</t>
-  </si>
-  <si>
-    <t>dx30s2</t>
-  </si>
-  <si>
-    <t>東勢區東勢國小</t>
-  </si>
-  <si>
-    <t>劉子謙</t>
-  </si>
-  <si>
-    <t>嚴康睿</t>
-  </si>
-  <si>
-    <t>smy20s7</t>
-  </si>
-  <si>
-    <t>xb8t5</t>
-  </si>
-  <si>
-    <t>劉祥生</t>
-  </si>
-  <si>
-    <t>my3sm6</t>
-  </si>
-  <si>
-    <t>m39m5</t>
+    <t>kfr19sm2</t>
+  </si>
+  <si>
+    <t>gw5tv9</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>顏澤安</t>
+    <t>王宇彤</t>
   </si>
   <si>
     <t>許皓欣</t>
   </si>
   <si>
-    <t>sm4bj2</t>
-  </si>
-  <si>
-    <t>dxb53tv2</t>
-  </si>
-  <si>
-    <t>林俞馨</t>
-  </si>
-  <si>
-    <t>pe27gw6</t>
-  </si>
-  <si>
-    <t>my42wh4</t>
-  </si>
-  <si>
-    <t>張睿筑</t>
-  </si>
-  <si>
-    <t>dx35p7</t>
-  </si>
-  <si>
-    <t>frs69rs9</t>
-  </si>
-  <si>
-    <t>張家禎</t>
-  </si>
-  <si>
-    <t>tv33r8</t>
-  </si>
-  <si>
-    <t>g9k1</t>
-  </si>
-  <si>
-    <t>南屯區大墩國小</t>
-  </si>
-  <si>
-    <t>陳宗衛</t>
-  </si>
-  <si>
-    <t>賴明珠</t>
-  </si>
-  <si>
-    <t>wh59k1</t>
-  </si>
-  <si>
-    <t>gwh98g1</t>
+    <t>anc84hp7</t>
+  </si>
+  <si>
+    <t>et83j5</t>
+  </si>
+  <si>
+    <t>賴卉珊</t>
+  </si>
+  <si>
+    <t>nc13dx2</t>
+  </si>
+  <si>
+    <t>bj32v5</t>
+  </si>
+  <si>
+    <t>林芸安</t>
+  </si>
+  <si>
+    <t>g8fr4</t>
+  </si>
+  <si>
+    <t>fr14kf6</t>
   </si>
   <si>
     <t>南屯區文山國小</t>
   </si>
   <si>
-    <t>張羽嫣</t>
-  </si>
-  <si>
-    <t>柯晁富</t>
-  </si>
-  <si>
-    <t>sm12m8</t>
-  </si>
-  <si>
-    <t>wh41et4</t>
-  </si>
-  <si>
     <t>楊寬洋</t>
   </si>
   <si>
     <t>林宜正</t>
   </si>
   <si>
-    <t>jk95hp1</t>
-  </si>
-  <si>
-    <t>w98rs5</t>
+    <t>fr75b5</t>
+  </si>
+  <si>
+    <t>hp48jk2</t>
+  </si>
+  <si>
+    <t>劉遵裕</t>
+  </si>
+  <si>
+    <t>gw78p7</t>
+  </si>
+  <si>
+    <t>kf11an9</t>
   </si>
   <si>
     <t>南屯區永春國小</t>
   </si>
   <si>
-    <t>顧韶鈜</t>
-  </si>
-  <si>
-    <t>徐雪珍</t>
-  </si>
-  <si>
-    <t>etv1kf3</t>
-  </si>
-  <si>
-    <t>bjk38et2</t>
-  </si>
-  <si>
-    <t>許晉嘉</t>
-  </si>
-  <si>
-    <t>nc92x5</t>
-  </si>
-  <si>
-    <t>w89g2</t>
-  </si>
-  <si>
-    <t>王維志</t>
-  </si>
-  <si>
-    <t>v43c2</t>
-  </si>
-  <si>
-    <t>c33pe6</t>
-  </si>
-  <si>
-    <t>南屯區惠文國小</t>
-  </si>
-  <si>
-    <t>王昱雄</t>
-  </si>
-  <si>
-    <t>陳易昌</t>
-  </si>
-  <si>
-    <t>w73kf5</t>
-  </si>
-  <si>
-    <t>n8gw7</t>
-  </si>
-  <si>
-    <t>陳志璿</t>
-  </si>
-  <si>
-    <t>bj32f9</t>
-  </si>
-  <si>
-    <t>hpe49my8</t>
+    <t>柯艾彤</t>
+  </si>
+  <si>
+    <t>賴鴻皓</t>
+  </si>
+  <si>
+    <t>pet1sm6</t>
+  </si>
+  <si>
+    <t>hp75gw2</t>
+  </si>
+  <si>
+    <t>保賢哲</t>
+  </si>
+  <si>
+    <t>ncd50n8</t>
+  </si>
+  <si>
+    <t>sm73hp3</t>
+  </si>
+  <si>
+    <t>南區信義國小</t>
+  </si>
+  <si>
+    <t>曾新</t>
+  </si>
+  <si>
+    <t>廖革為</t>
+  </si>
+  <si>
+    <t>wh82m3</t>
+  </si>
+  <si>
+    <t>x77gw3</t>
+  </si>
+  <si>
+    <t>田曜群</t>
+  </si>
+  <si>
+    <t>徐泰雄</t>
+  </si>
+  <si>
+    <t>jk48gw1</t>
+  </si>
+  <si>
+    <t>gw16et4</t>
   </si>
   <si>
     <t>南區樹義國小</t>
   </si>
   <si>
-    <t>蔡嘉祐</t>
+    <t>何柏穎</t>
   </si>
   <si>
     <t>陳雅儀</t>
   </si>
   <si>
-    <t>kf88x8</t>
-  </si>
-  <si>
-    <t>frs50c5</t>
-  </si>
-  <si>
-    <t>廖崇佑</t>
-  </si>
-  <si>
-    <t>cd61nc6</t>
-  </si>
-  <si>
-    <t>dx48yg6</t>
-  </si>
-  <si>
-    <t>曾柏璁</t>
-  </si>
-  <si>
-    <t>rs64s9</t>
-  </si>
-  <si>
-    <t>myg33tv8</t>
-  </si>
-  <si>
-    <t>何柏穎</t>
-  </si>
-  <si>
-    <t>xb79c9</t>
-  </si>
-  <si>
-    <t>e82c5</t>
+    <t>hp67m4</t>
+  </si>
+  <si>
+    <t>myg6j8</t>
   </si>
   <si>
     <t>烏日區九德國小</t>
   </si>
   <si>
-    <t>林虞庭</t>
+    <t>范耀文</t>
   </si>
   <si>
     <t>吳嘉貿</t>
   </si>
   <si>
-    <t>pe55dx7</t>
-  </si>
-  <si>
-    <t>et31s7</t>
-  </si>
-  <si>
-    <t>神岡區社口國小</t>
-  </si>
-  <si>
-    <t>陳湧佳</t>
-  </si>
-  <si>
-    <t>黃子欣</t>
-  </si>
-  <si>
-    <t>c33s6</t>
-  </si>
-  <si>
-    <t>h43y4</t>
+    <t>dx27g2</t>
+  </si>
+  <si>
+    <t>cdx15kf9</t>
+  </si>
+  <si>
+    <t>賴禹成</t>
+  </si>
+  <si>
+    <t>my5my6</t>
+  </si>
+  <si>
+    <t>hpe49k2</t>
+  </si>
+  <si>
+    <t>清水區清水國小</t>
+  </si>
+  <si>
+    <t>張巧蓁</t>
+  </si>
+  <si>
+    <t>吳仁智</t>
+  </si>
+  <si>
+    <t>n16yg6</t>
+  </si>
+  <si>
+    <t>cd61cd8</t>
   </si>
   <si>
     <t>潭子區潭子國小</t>
   </si>
   <si>
-    <t>黃琮軒</t>
+    <t>吳安直</t>
   </si>
   <si>
     <t>鍾溫和</t>
   </si>
   <si>
-    <t>wh90wh6</t>
-  </si>
-  <si>
-    <t>ygw36rs9</t>
+    <t>dx90an5</t>
+  </si>
+  <si>
+    <t>my88et2</t>
   </si>
   <si>
     <t>潭子區潭陽國小</t>
   </si>
   <si>
-    <t>何澤祥</t>
+    <t>黃俐珈</t>
   </si>
   <si>
     <t>蔡育忠</t>
   </si>
   <si>
-    <t>e22t3</t>
-  </si>
-  <si>
-    <t>myg9f5</t>
-  </si>
-  <si>
-    <t>潭子區頭家國小</t>
-  </si>
-  <si>
-    <t>陳芸熙</t>
-  </si>
-  <si>
-    <t>丁昱文</t>
-  </si>
-  <si>
-    <t>wh28n8</t>
-  </si>
-  <si>
-    <t>wh5gw9</t>
+    <t>fr71k7</t>
+  </si>
+  <si>
+    <t>y13p7</t>
   </si>
   <si>
     <t>豐原區南陽國小</t>
   </si>
   <si>
-    <t>陳泓睿</t>
-  </si>
-  <si>
-    <t>吳德虎</t>
-  </si>
-  <si>
-    <t>rs46hp8</t>
-  </si>
-  <si>
-    <t>cdx97kf2</t>
-  </si>
-  <si>
-    <t>豐原區瑞穗國小</t>
-  </si>
-  <si>
-    <t>凃旭哲</t>
-  </si>
-  <si>
-    <t>林榮祿</t>
-  </si>
-  <si>
-    <t>an97my2</t>
-  </si>
-  <si>
-    <t>tv5sm6</t>
-  </si>
-  <si>
-    <t>郭穀盛</t>
-  </si>
-  <si>
-    <t>an60v9</t>
-  </si>
-  <si>
-    <t>c19hp7</t>
-  </si>
-  <si>
-    <t>尤羿翔</t>
-  </si>
-  <si>
-    <t>許炯祥</t>
-  </si>
-  <si>
-    <t>hp63nc5</t>
-  </si>
-  <si>
-    <t>wh71m2</t>
-  </si>
-  <si>
-    <t>豐原區葫蘆墩國小</t>
-  </si>
-  <si>
-    <t>林郁家</t>
-  </si>
-  <si>
-    <t>廖昭彥</t>
-  </si>
-  <si>
-    <t>hp18kf3</t>
-  </si>
-  <si>
-    <t>frs19wh3</t>
-  </si>
-  <si>
-    <t>豐原區豐田國小</t>
-  </si>
-  <si>
-    <t>劉勝侖</t>
-  </si>
-  <si>
-    <t>劉俊顯</t>
-  </si>
-  <si>
-    <t>nc58et8</t>
-  </si>
-  <si>
-    <t>fr51pe4</t>
+    <t>林昊德</t>
+  </si>
+  <si>
+    <t>黃泓諺</t>
+  </si>
+  <si>
+    <t>kf31f4</t>
+  </si>
+  <si>
+    <t>whp44e3</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,10 +1665,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2005,19 +1772,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2028,19 +1795,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2051,19 +1818,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2074,19 +1841,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2097,19 +1864,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2120,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2143,19 +1910,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2166,19 +1933,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2189,19 +1956,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2212,19 +1979,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2235,19 +2002,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2258,19 +2025,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2281,19 +2048,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2304,19 +2071,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2327,19 +2094,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2350,19 +2117,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2373,19 +2140,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2396,19 +2163,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2419,19 +2186,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2442,19 +2209,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2465,19 +2232,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2488,19 +2255,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2511,19 +2278,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2534,19 +2301,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2557,19 +2324,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2580,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2603,19 +2370,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2629,16 +2396,16 @@
         <v>126</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2649,19 +2416,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2672,19 +2439,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2695,19 +2462,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2718,19 +2485,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2741,19 +2508,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="F37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2764,19 +2531,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2787,19 +2554,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2810,19 +2577,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2833,19 +2600,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2856,19 +2623,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2879,19 +2646,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2902,19 +2669,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2925,19 +2692,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2948,19 +2715,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2971,19 +2738,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2994,19 +2761,19 @@
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3017,19 +2784,19 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -3040,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3063,456 +2830,19 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
